--- a/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A4FB26-8E95-4212-8977-73A25A7CE083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F51290-E1C6-4277-BFC2-3090A073291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{28268CF4-A7A6-44B4-8E29-C3B3F9639137}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{25395E08-0113-4A99-9D08-3563202A038B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="158">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,36%</t>
+    <t>5,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,7 +92,7 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>94,64%</t>
+    <t>94,75%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,19 +107,19 @@
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -128,19 +128,19 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -149,19 +149,19 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -170,37 +170,31 @@
     <t>7,53%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>5,54%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>94,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -323,103 +317,97 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>98,46%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>96,61%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,66%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>96,34%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
@@ -428,55 +416,55 @@
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>2,26%</t>
@@ -485,13 +473,13 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>3,84%</t>
+    <t>3,72%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,16%</t>
+    <t>96,28%</t>
   </si>
   <si>
     <t>98,79%</t>
@@ -500,37 +488,31 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>98,63%</t>
   </si>
 </sst>
 </file>
@@ -942,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06751AE7-4E1C-48CD-90A1-64F21B6ADBCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663E70D1-B773-4D5B-94FF-A05C9D64944B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1830,7 +1812,7 @@
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -1845,7 +1827,7 @@
         <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1855,13 @@
         <v>3162565</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>3086</v>
@@ -1888,13 +1870,13 @@
         <v>3162565</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,7 +1930,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826E612D-1B12-437E-9559-A4BFE16E2F41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FB4BE1-177D-45A5-956A-3DC9E7E58FEA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1986,7 +1968,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2106,13 +2088,13 @@
         <v>6841</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2121,13 +2103,13 @@
         <v>6841</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2137,13 @@
         <v>105064</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M5" s="7">
         <v>93</v>
@@ -2170,13 +2152,13 @@
         <v>105064</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2237,13 @@
         <v>39647</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -2270,13 +2252,13 @@
         <v>39647</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2286,13 @@
         <v>541480</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M8" s="7">
         <v>508</v>
@@ -2319,13 +2301,13 @@
         <v>541480</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2386,13 @@
         <v>70784</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -2419,13 +2401,13 @@
         <v>70784</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2435,13 @@
         <v>955957</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>871</v>
@@ -2468,13 +2450,13 @@
         <v>955957</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2535,13 @@
         <v>46639</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2568,13 +2550,13 @@
         <v>46639</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2584,13 @@
         <v>727651</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>660</v>
@@ -2617,13 +2599,13 @@
         <v>727651</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2684,13 @@
         <v>69250</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2717,13 +2699,13 @@
         <v>69250</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2733,13 @@
         <v>976502</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>931</v>
@@ -2766,13 +2748,13 @@
         <v>976502</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2833,13 @@
         <v>233162</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -2866,13 +2848,13 @@
         <v>233162</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2882,13 @@
         <v>3306654</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>3063</v>
@@ -2915,13 +2897,13 @@
         <v>3306654</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2957,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2996,7 +2978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514EEFAD-6609-4D40-BCA3-D6B583A07B0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F820C-C17F-4312-BA33-E58B3C444DEB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3013,7 +2995,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3133,13 +3115,13 @@
         <v>5137</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3148,13 +3130,13 @@
         <v>5137</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3164,13 @@
         <v>108223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>109</v>
@@ -3197,13 +3179,13 @@
         <v>108223</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3264,13 @@
         <v>20154</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3297,13 +3279,13 @@
         <v>20154</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3313,13 @@
         <v>539325</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>529</v>
@@ -3346,13 +3328,13 @@
         <v>539325</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3413,13 @@
         <v>40832</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3446,13 +3428,13 @@
         <v>40832</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3462,13 @@
         <v>1002081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M11" s="7">
         <v>936</v>
@@ -3495,13 +3477,13 @@
         <v>1002081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3562,13 @@
         <v>37050</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -3595,13 +3577,13 @@
         <v>37050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3611,13 @@
         <v>747961</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -3644,13 +3626,13 @@
         <v>747961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3711,13 @@
         <v>49160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -3744,13 +3726,13 @@
         <v>49160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3760,13 @@
         <v>994619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>911</v>
@@ -3793,13 +3775,13 @@
         <v>994619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3860,13 @@
         <v>152333</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -3893,13 +3875,13 @@
         <v>152333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3909,13 @@
         <v>3392209</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>3184</v>
@@ -3942,13 +3924,13 @@
         <v>3392209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,7 +3984,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4023,7 +4005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CFB62C-7810-4394-B5A1-A8E76CC6DE8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31C7051-A799-417C-9C2E-37F1858B30C0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4040,7 +4022,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4160,13 +4142,13 @@
         <v>2224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4175,13 +4157,13 @@
         <v>2224</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4191,13 @@
         <v>128509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>240</v>
@@ -4224,13 +4206,13 @@
         <v>128509</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4291,13 @@
         <v>8842</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4324,13 +4306,13 @@
         <v>8842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4340,13 @@
         <v>584120</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>986</v>
@@ -4373,13 +4355,13 @@
         <v>584120</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4440,13 @@
         <v>17335</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4473,13 +4455,13 @@
         <v>17335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4489,13 @@
         <v>1041341</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>1498</v>
@@ -4522,13 +4504,13 @@
         <v>1041341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4589,13 @@
         <v>19715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4622,13 +4604,13 @@
         <v>19715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,31 +4635,31 @@
         <v>1024</v>
       </c>
       <c r="I14" s="7">
-        <v>851511</v>
+        <v>851510</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>1024</v>
       </c>
       <c r="N14" s="7">
-        <v>851511</v>
+        <v>851510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,7 +4684,7 @@
         <v>1044</v>
       </c>
       <c r="I15" s="7">
-        <v>871226</v>
+        <v>871225</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4717,7 +4699,7 @@
         <v>1044</v>
       </c>
       <c r="N15" s="7">
-        <v>871226</v>
+        <v>871225</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4756,13 +4738,13 @@
         <v>20079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4771,13 +4753,13 @@
         <v>20079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4787,13 @@
         <v>1125391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>1535</v>
@@ -4820,13 +4802,13 @@
         <v>1125391</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4887,13 @@
         <v>68194</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>72</v>
@@ -4920,13 +4902,13 @@
         <v>68194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4936,13 @@
         <v>3730873</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>5283</v>
@@ -4969,13 +4951,13 @@
         <v>3730873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,7 +5011,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F51290-E1C6-4277-BFC2-3090A073291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D453332A-4D94-4169-8D43-8431CC1FA7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{25395E08-0113-4A99-9D08-3563202A038B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42D041C0-AF0C-4DB5-A096-F65770C81EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,25%</t>
+    <t>4,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,7 +92,7 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>94,75%</t>
+    <t>95,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -101,67 +101,67 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -170,31 +170,37 @@
     <t>7,53%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>5,54%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>94,46%</t>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -206,310 +212,322 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>93,18%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>98,2%</t>
   </si>
   <si>
     <t>97,64%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
   </si>
   <si>
     <t>98,63%</t>
@@ -924,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663E70D1-B773-4D5B-94FF-A05C9D64944B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6E8059-9935-43E0-BFCC-C3A2F77746F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1812,7 +1830,7 @@
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -1827,7 +1845,7 @@
         <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,13 +1873,13 @@
         <v>3162565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>3086</v>
@@ -1870,13 +1888,13 @@
         <v>3162565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,7 +1948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1951,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FB4BE1-177D-45A5-956A-3DC9E7E58FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7714FF-5D1F-4D5A-A697-6C737BAB927F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1968,7 +1986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2088,13 +2106,13 @@
         <v>6841</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2103,13 +2121,13 @@
         <v>6841</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2155,13 @@
         <v>105064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M5" s="7">
         <v>93</v>
@@ -2152,13 +2170,13 @@
         <v>105064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2255,13 @@
         <v>39647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -2252,13 +2270,13 @@
         <v>39647</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2304,13 @@
         <v>541480</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
         <v>508</v>
@@ -2301,13 +2319,13 @@
         <v>541480</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2404,13 @@
         <v>70784</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -2401,13 +2419,13 @@
         <v>70784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2453,13 @@
         <v>955957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>871</v>
@@ -2450,13 +2468,13 @@
         <v>955957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2553,13 @@
         <v>46639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2550,13 +2568,13 @@
         <v>46639</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2602,13 @@
         <v>727651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>660</v>
@@ -2599,13 +2617,13 @@
         <v>727651</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2702,13 @@
         <v>69250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -2699,13 +2717,13 @@
         <v>69250</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2751,13 @@
         <v>976502</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>931</v>
@@ -2748,13 +2766,13 @@
         <v>976502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2851,13 @@
         <v>233162</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -2848,13 +2866,13 @@
         <v>233162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2900,13 @@
         <v>3306654</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>3063</v>
@@ -2897,13 +2915,13 @@
         <v>3306654</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,7 +2975,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F820C-C17F-4312-BA33-E58B3C444DEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39EB0DA-0515-4931-9215-36E8BA519EA2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2995,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3115,13 +3133,13 @@
         <v>5137</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3130,13 +3148,13 @@
         <v>5137</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3182,13 @@
         <v>108223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>109</v>
@@ -3179,13 +3197,13 @@
         <v>108223</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3282,13 @@
         <v>20154</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3279,13 +3297,13 @@
         <v>20154</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3331,13 @@
         <v>539325</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>529</v>
@@ -3328,13 +3346,13 @@
         <v>539325</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3431,13 @@
         <v>40832</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3428,13 +3446,13 @@
         <v>40832</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3480,13 @@
         <v>1002081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>936</v>
@@ -3477,13 +3495,13 @@
         <v>1002081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3580,13 @@
         <v>37050</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -3577,13 +3595,13 @@
         <v>37050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3629,13 @@
         <v>747961</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -3626,13 +3644,13 @@
         <v>747961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3729,13 @@
         <v>49160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -3726,13 +3744,13 @@
         <v>49160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3778,13 @@
         <v>994619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>911</v>
@@ -3775,13 +3793,13 @@
         <v>994619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3878,13 @@
         <v>152333</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -3875,13 +3893,13 @@
         <v>152333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3927,13 @@
         <v>3392209</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>3184</v>
@@ -3924,13 +3942,13 @@
         <v>3392209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +4002,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4005,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31C7051-A799-417C-9C2E-37F1858B30C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23EEA27-F38F-4788-AC5C-11D492677B06}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4022,7 +4040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4142,13 +4160,13 @@
         <v>2224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4157,13 +4175,13 @@
         <v>2224</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4209,13 @@
         <v>128509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>240</v>
@@ -4206,13 +4224,13 @@
         <v>128509</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4309,13 @@
         <v>8842</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4306,13 +4324,13 @@
         <v>8842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4358,13 @@
         <v>584120</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>986</v>
@@ -4355,13 +4373,13 @@
         <v>584120</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4458,13 @@
         <v>17335</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4455,13 +4473,13 @@
         <v>17335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4507,13 @@
         <v>1041341</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>1498</v>
@@ -4504,13 +4522,13 @@
         <v>1041341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4607,13 @@
         <v>19715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4604,13 +4622,13 @@
         <v>19715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4656,13 @@
         <v>851510</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>1024</v>
@@ -4653,13 +4671,13 @@
         <v>851510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4756,13 @@
         <v>20079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4753,13 +4771,13 @@
         <v>20079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4805,13 @@
         <v>1125391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>1535</v>
@@ -4802,13 +4820,13 @@
         <v>1125391</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4905,13 @@
         <v>68194</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>72</v>
@@ -4902,13 +4920,13 @@
         <v>68194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4954,13 @@
         <v>3730873</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>5283</v>
@@ -4951,13 +4969,13 @@
         <v>3730873</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,7 +5029,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D453332A-4D94-4169-8D43-8431CC1FA7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E39204-878D-4DA0-8BC6-0280CEDAE9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42D041C0-AF0C-4DB5-A096-F65770C81EBE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{621ABCCA-F352-4FF4-82E0-43CFB2558DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,83%</t>
+    <t>5,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,7 +92,7 @@
     <t>98,47%</t>
   </si>
   <si>
-    <t>95,17%</t>
+    <t>94,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>4,49%</t>
   </si>
   <si>
-    <t>8,48%</t>
+    <t>8,51%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,52%</t>
+    <t>91,49%</t>
   </si>
   <si>
     <t>95,51%</t>
@@ -128,19 +128,19 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -149,19 +149,19 @@
     <t>6,63%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -170,37 +170,37 @@
     <t>7,53%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -212,109 +212,109 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>93,18%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
@@ -323,103 +323,103 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,65%</t>
+    <t>3,66%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>96,35%</t>
+    <t>96,34%</t>
   </si>
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
@@ -428,55 +428,55 @@
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>2,26%</t>
@@ -485,13 +485,13 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>3,72%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>96,28%</t>
+    <t>96,16%</t>
   </si>
   <si>
     <t>98,79%</t>
@@ -500,37 +500,37 @@
     <t>1,75%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
 </sst>
 </file>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6E8059-9935-43E0-BFCC-C3A2F77746F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97259730-078B-44F3-BE1B-D973E1370630}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7714FF-5D1F-4D5A-A697-6C737BAB927F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981AA40A-5042-4996-B775-B2C4AE624EE9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2996,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39EB0DA-0515-4931-9215-36E8BA519EA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B912F78-5654-4FA1-B37C-0F189FB5D86D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4023,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23EEA27-F38F-4788-AC5C-11D492677B06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABA611B-B3A8-4183-9ED3-67B843970C7E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4653,7 +4653,7 @@
         <v>1024</v>
       </c>
       <c r="I14" s="7">
-        <v>851510</v>
+        <v>851511</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>149</v>
@@ -4668,7 +4668,7 @@
         <v>1024</v>
       </c>
       <c r="N14" s="7">
-        <v>851510</v>
+        <v>851511</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>149</v>
@@ -4702,7 +4702,7 @@
         <v>1044</v>
       </c>
       <c r="I15" s="7">
-        <v>871225</v>
+        <v>871226</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4717,7 +4717,7 @@
         <v>1044</v>
       </c>
       <c r="N15" s="7">
-        <v>871225</v>
+        <v>871226</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E39204-878D-4DA0-8BC6-0280CEDAE9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89426551-A5D1-4C64-AE1C-0A62333C59DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{621ABCCA-F352-4FF4-82E0-43CFB2558DBA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FE35C700-1CEF-41B2-8BD4-28B3B06BBF11}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="137">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,51 +77,30 @@
     <t>—%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -143,7 +122,7 @@
     <t>95,85%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>6,63%</t>
@@ -209,48 +188,27 @@
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
     <t>8,9%</t>
   </si>
   <si>
@@ -260,9 +218,6 @@
     <t>91,1%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
     <t>6,02%</t>
   </si>
   <si>
@@ -320,217 +275,181 @@
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
-    <t>4,53%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
 </sst>
 </file>
@@ -942,8 +861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97259730-078B-44F3-BE1B-D973E1370630}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFC28AD-9121-486F-8FAC-E05EA808D8C4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1073,10 +992,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>1720</v>
+        <v>37497</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1088,10 +1007,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>1720</v>
+        <v>37497</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1122,10 +1041,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>659</v>
       </c>
       <c r="I5" s="7">
-        <v>111035</v>
+        <v>650854</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1137,10 +1056,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>126</v>
+        <v>659</v>
       </c>
       <c r="N5" s="7">
-        <v>111035</v>
+        <v>650854</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1171,10 +1090,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1186,10 +1105,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="N6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1222,10 +1141,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>35776</v>
+        <v>53764</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1237,10 +1156,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>35776</v>
+        <v>53764</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1271,10 +1190,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>533</v>
+        <v>856</v>
       </c>
       <c r="I8" s="7">
-        <v>539820</v>
+        <v>912771</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1286,10 +1205,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>533</v>
+        <v>856</v>
       </c>
       <c r="N8" s="7">
-        <v>539820</v>
+        <v>912771</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1320,10 +1239,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>906</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>966535</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1335,10 +1254,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>567</v>
+        <v>906</v>
       </c>
       <c r="N9" s="7">
-        <v>575596</v>
+        <v>966535</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1371,10 +1290,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>53764</v>
+        <v>45308</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1386,10 +1305,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>53764</v>
+        <v>45308</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
@@ -1420,10 +1339,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>856</v>
+        <v>649</v>
       </c>
       <c r="I11" s="7">
-        <v>912771</v>
+        <v>638533</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1435,10 +1354,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>856</v>
+        <v>649</v>
       </c>
       <c r="N11" s="7">
-        <v>912771</v>
+        <v>638533</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>31</v>
@@ -1469,10 +1388,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>906</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>966535</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1484,10 +1403,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>906</v>
+        <v>696</v>
       </c>
       <c r="N12" s="7">
-        <v>966535</v>
+        <v>683841</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1520,10 +1439,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I13" s="7">
-        <v>45308</v>
+        <v>78207</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>35</v>
@@ -1535,10 +1454,10 @@
         <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>45308</v>
+        <v>78207</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>35</v>
@@ -1569,10 +1488,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>649</v>
+        <v>922</v>
       </c>
       <c r="I14" s="7">
-        <v>638533</v>
+        <v>960405</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>38</v>
@@ -1584,10 +1503,10 @@
         <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>649</v>
+        <v>922</v>
       </c>
       <c r="N14" s="7">
-        <v>638533</v>
+        <v>960405</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>38</v>
@@ -1618,10 +1537,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1633,10 +1552,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="N15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1650,7 +1569,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1669,34 +1588,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="I16" s="7">
-        <v>78207</v>
+        <v>214775</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="N16" s="7">
-        <v>78207</v>
+        <v>214775</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,34 +1637,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>922</v>
+        <v>3086</v>
       </c>
       <c r="I17" s="7">
-        <v>960405</v>
+        <v>3162564</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M17" s="7">
-        <v>922</v>
+        <v>3086</v>
       </c>
       <c r="N17" s="7">
-        <v>960405</v>
+        <v>3162564</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,10 +1686,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3294</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3377339</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1782,10 +1701,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>997</v>
+        <v>3294</v>
       </c>
       <c r="N18" s="7">
-        <v>1038612</v>
+        <v>3377339</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1798,165 +1717,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>208</v>
-      </c>
-      <c r="I19" s="7">
-        <v>214775</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="7">
-        <v>208</v>
-      </c>
-      <c r="N19" s="7">
-        <v>214775</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3086</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3162565</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3086</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3162565</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3377340</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3294</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3377340</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1969,8 +1738,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981AA40A-5042-4996-B775-B2C4AE624EE9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A8E435-6C8C-4C1C-A2D1-5FCDDECA2612}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1986,7 +1755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2100,34 +1869,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>6841</v>
+        <v>46488</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>6841</v>
+        <v>46488</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,34 +1918,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>93</v>
+        <v>601</v>
       </c>
       <c r="I5" s="7">
-        <v>105064</v>
+        <v>646544</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>93</v>
+        <v>601</v>
       </c>
       <c r="N5" s="7">
-        <v>105064</v>
+        <v>646544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,10 +1967,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>693032</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2213,10 +1982,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="N6" s="7">
-        <v>111905</v>
+        <v>693032</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2249,34 +2018,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I7" s="7">
-        <v>39647</v>
+        <v>70784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="7">
         <v>64</v>
       </c>
-      <c r="M7" s="7">
-        <v>39</v>
-      </c>
       <c r="N7" s="7">
-        <v>39647</v>
+        <v>70784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,34 +2067,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>508</v>
+        <v>871</v>
       </c>
       <c r="I8" s="7">
-        <v>541480</v>
+        <v>955957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
-        <v>508</v>
+        <v>871</v>
       </c>
       <c r="N8" s="7">
-        <v>541480</v>
+        <v>955957</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,10 +2116,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>935</v>
       </c>
       <c r="I9" s="7">
-        <v>581127</v>
+        <v>1026741</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2362,10 +2131,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>547</v>
+        <v>935</v>
       </c>
       <c r="N9" s="7">
-        <v>581127</v>
+        <v>1026741</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2398,34 +2167,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>70784</v>
+        <v>46639</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>70784</v>
+        <v>46639</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,34 +2216,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>871</v>
+        <v>660</v>
       </c>
       <c r="I11" s="7">
-        <v>955957</v>
+        <v>727651</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>871</v>
+        <v>660</v>
       </c>
       <c r="N11" s="7">
-        <v>955957</v>
+        <v>727651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,10 +2265,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>935</v>
+        <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>1026741</v>
+        <v>774290</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2511,10 +2280,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>935</v>
+        <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>1026741</v>
+        <v>774290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2547,34 +2316,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>46639</v>
+        <v>69250</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>46639</v>
+        <v>69250</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,34 +2365,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>660</v>
+        <v>931</v>
       </c>
       <c r="I14" s="7">
-        <v>727651</v>
+        <v>976502</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>660</v>
+        <v>931</v>
       </c>
       <c r="N14" s="7">
-        <v>727651</v>
+        <v>976502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,10 +2414,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>702</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>774290</v>
+        <v>1045752</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2660,10 +2429,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>702</v>
+        <v>997</v>
       </c>
       <c r="N15" s="7">
-        <v>774290</v>
+        <v>1045752</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2677,7 +2446,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2696,34 +2465,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="I16" s="7">
-        <v>69250</v>
+        <v>233162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="N16" s="7">
-        <v>69250</v>
+        <v>233162</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,34 +2514,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>931</v>
+        <v>3063</v>
       </c>
       <c r="I17" s="7">
-        <v>976502</v>
+        <v>3306654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
-        <v>931</v>
+        <v>3063</v>
       </c>
       <c r="N17" s="7">
-        <v>976502</v>
+        <v>3306654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3280</v>
       </c>
       <c r="I18" s="7">
-        <v>1045752</v>
+        <v>3539816</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2809,10 +2578,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>997</v>
+        <v>3280</v>
       </c>
       <c r="N18" s="7">
-        <v>1045752</v>
+        <v>3539816</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2825,165 +2594,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>217</v>
-      </c>
-      <c r="I19" s="7">
-        <v>233162</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="7">
-        <v>217</v>
-      </c>
-      <c r="N19" s="7">
-        <v>233162</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3063</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3306654</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3063</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3306654</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3280</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3539816</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3280</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3539816</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2996,8 +2615,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B912F78-5654-4FA1-B37C-0F189FB5D86D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EE437F-B5E9-403A-A9CE-65638548328F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3013,7 +2632,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3127,34 +2746,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>5137</v>
+        <v>25291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>5137</v>
+        <v>25291</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,34 +2795,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>638</v>
       </c>
       <c r="I5" s="7">
-        <v>108223</v>
+        <v>647548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
-        <v>109</v>
+        <v>638</v>
       </c>
       <c r="N5" s="7">
-        <v>108223</v>
+        <v>647548</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,10 +2844,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3240,10 +2859,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="N6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3276,34 +2895,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>20154</v>
+        <v>40832</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>20154</v>
+        <v>40832</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,34 +2944,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>529</v>
+        <v>936</v>
       </c>
       <c r="I8" s="7">
-        <v>539325</v>
+        <v>1002081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
-        <v>529</v>
+        <v>936</v>
       </c>
       <c r="N8" s="7">
-        <v>539325</v>
+        <v>1002081</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,10 +2993,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3389,10 +3008,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="N9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3425,34 +3044,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>40832</v>
+        <v>37050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N10" s="7">
-        <v>40832</v>
+        <v>37050</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,34 +3093,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>936</v>
+        <v>699</v>
       </c>
       <c r="I11" s="7">
-        <v>1002081</v>
+        <v>747961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
-        <v>936</v>
+        <v>699</v>
       </c>
       <c r="N11" s="7">
-        <v>1002081</v>
+        <v>747961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,10 +3142,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3538,10 +3157,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="N12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3574,34 +3193,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>37050</v>
+        <v>49160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>37050</v>
+        <v>49160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,34 +3242,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>699</v>
+        <v>911</v>
       </c>
       <c r="I14" s="7">
-        <v>747961</v>
+        <v>994619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
-        <v>699</v>
+        <v>911</v>
       </c>
       <c r="N14" s="7">
-        <v>747961</v>
+        <v>994619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,10 +3291,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3687,10 +3306,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="N15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3704,7 +3323,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3723,34 +3342,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="I16" s="7">
-        <v>49160</v>
+        <v>152333</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="M16" s="7">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="N16" s="7">
-        <v>49160</v>
+        <v>152333</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,34 +3391,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>911</v>
+        <v>3184</v>
       </c>
       <c r="I17" s="7">
-        <v>994619</v>
+        <v>3392209</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
-        <v>911</v>
+        <v>3184</v>
       </c>
       <c r="N17" s="7">
-        <v>994619</v>
+        <v>3392209</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,10 +3440,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3836,10 +3455,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="N18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3852,165 +3471,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>154</v>
-      </c>
-      <c r="I19" s="7">
-        <v>152333</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
-        <v>154</v>
-      </c>
-      <c r="N19" s="7">
-        <v>152333</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3184</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3392209</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3184</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3392209</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4023,8 +3492,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABA611B-B3A8-4183-9ED3-67B843970C7E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5FBD18-516F-49E3-AF19-DAAE6EF19F23}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4040,7 +3509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4154,34 +3623,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>2224</v>
+        <v>10729</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>2224</v>
+        <v>10729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,34 +3672,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>240</v>
+        <v>1226</v>
       </c>
       <c r="I5" s="7">
-        <v>128509</v>
+        <v>665023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
-        <v>240</v>
+        <v>1226</v>
       </c>
       <c r="N5" s="7">
-        <v>128509</v>
+        <v>665023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,10 +3721,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4267,10 +3736,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="N6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4303,34 +3772,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>8842</v>
+        <v>15622</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>8842</v>
+        <v>15622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,34 +3821,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>986</v>
+        <v>1498</v>
       </c>
       <c r="I8" s="7">
-        <v>584120</v>
+        <v>941717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
-        <v>986</v>
+        <v>1498</v>
       </c>
       <c r="N8" s="7">
-        <v>584120</v>
+        <v>941717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,10 +3870,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>957339</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4416,10 +3885,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="N9" s="7">
-        <v>592962</v>
+        <v>957339</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4452,34 +3921,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>17335</v>
+        <v>17950</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>17335</v>
+        <v>17950</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,34 +3970,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1498</v>
+        <v>1024</v>
       </c>
       <c r="I11" s="7">
-        <v>1041341</v>
+        <v>912571</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
-        <v>1498</v>
+        <v>1024</v>
       </c>
       <c r="N11" s="7">
-        <v>1041341</v>
+        <v>912571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,10 +4019,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1058676</v>
+        <v>930521</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4565,10 +4034,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1515</v>
+        <v>1044</v>
       </c>
       <c r="N12" s="7">
-        <v>1058676</v>
+        <v>930521</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4601,34 +4070,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>19715</v>
+        <v>19364</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>19715</v>
+        <v>19364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,34 +4119,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1024</v>
+        <v>1535</v>
       </c>
       <c r="I14" s="7">
-        <v>851511</v>
+        <v>1071219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
-        <v>1024</v>
+        <v>1535</v>
       </c>
       <c r="N14" s="7">
-        <v>851511</v>
+        <v>1071219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,10 +4168,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1557</v>
       </c>
       <c r="I15" s="7">
-        <v>871226</v>
+        <v>1090583</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4714,10 +4183,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1044</v>
+        <v>1557</v>
       </c>
       <c r="N15" s="7">
-        <v>871226</v>
+        <v>1090583</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4731,7 +4200,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4750,34 +4219,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>20079</v>
+        <v>63664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="N16" s="7">
-        <v>20079</v>
+        <v>63664</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,34 +4268,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>1535</v>
+        <v>5283</v>
       </c>
       <c r="I17" s="7">
-        <v>1125391</v>
+        <v>3590531</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
-        <v>1535</v>
+        <v>5283</v>
       </c>
       <c r="N17" s="7">
-        <v>1125391</v>
+        <v>3590531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,10 +4317,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>1557</v>
+        <v>5355</v>
       </c>
       <c r="I18" s="7">
-        <v>1145470</v>
+        <v>3654195</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4863,10 +4332,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1557</v>
+        <v>5355</v>
       </c>
       <c r="N18" s="7">
-        <v>1145470</v>
+        <v>3654195</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4879,165 +4348,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>72</v>
-      </c>
-      <c r="I19" s="7">
-        <v>68194</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M19" s="7">
-        <v>72</v>
-      </c>
-      <c r="N19" s="7">
-        <v>68194</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5283</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3730873</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5283</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3730873</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5355</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3799067</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5355</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3799067</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
